--- a/INTLINE/data/134/DEUSTATIS/old/Producer price index for industrial products - GP3 codes - 1986.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Producer price index for industrial products - GP3 codes - 1986.xlsx
@@ -700,7 +700,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:19:50</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:56:39</t>
   </si>
 </sst>
 </file>
@@ -44104,7 +44104,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:20:06&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:56:48&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>